--- a/download/bulkUserCredentialForAllTypeQutnExam.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,100 +41,190 @@
     <t>Role</t>
   </si>
   <si>
-    <t>zvhvo765</t>
-  </si>
-  <si>
-    <t>udgjehp54</t>
-  </si>
-  <si>
-    <t>Q#r76d&amp;G</t>
+    <t>DExpi910</t>
+  </si>
+  <si>
+    <t>xsxsafl56</t>
+  </si>
+  <si>
+    <t>f7R9F!%y</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>LFiKTmhV</t>
-  </si>
-  <si>
-    <t>MTfL</t>
+    <t>TEevobFl</t>
+  </si>
+  <si>
+    <t>BUbp</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>PImer348</t>
-  </si>
-  <si>
-    <t>ietdoik91</t>
-  </si>
-  <si>
-    <t>qC$!6S3h</t>
-  </si>
-  <si>
-    <t>AwjUmwCm</t>
-  </si>
-  <si>
-    <t>mLxK</t>
-  </si>
-  <si>
-    <t>ZOXmI890</t>
-  </si>
-  <si>
-    <t>spfqkzo66</t>
-  </si>
-  <si>
-    <t>hW!M64#x</t>
-  </si>
-  <si>
-    <t>OsIzdBfM</t>
-  </si>
-  <si>
-    <t>XnNY</t>
-  </si>
-  <si>
-    <t>mHoMe669</t>
-  </si>
-  <si>
-    <t>kjbuhcg85</t>
-  </si>
-  <si>
-    <t>d&amp;4A6!hU</t>
-  </si>
-  <si>
-    <t>jTvBybzi</t>
-  </si>
-  <si>
-    <t>gcJT</t>
-  </si>
-  <si>
-    <t>pAKPY623</t>
-  </si>
-  <si>
-    <t>ksiitun77</t>
-  </si>
-  <si>
-    <t>VP$9&amp;p3a</t>
-  </si>
-  <si>
-    <t>IsVPfCun</t>
-  </si>
-  <si>
-    <t>PlQx</t>
-  </si>
-  <si>
-    <t>dOQqK553</t>
-  </si>
-  <si>
-    <t>swrjdde61</t>
-  </si>
-  <si>
-    <t>Qd4tD3!&amp;</t>
-  </si>
-  <si>
-    <t>DaMSrIeR</t>
-  </si>
-  <si>
-    <t>xtRO</t>
+    <t>dEtqV203</t>
+  </si>
+  <si>
+    <t>qlbigcc48</t>
+  </si>
+  <si>
+    <t>a5GQd6&amp;#</t>
+  </si>
+  <si>
+    <t>LZSOyssD</t>
+  </si>
+  <si>
+    <t>XKkU</t>
+  </si>
+  <si>
+    <t>eugBU870</t>
+  </si>
+  <si>
+    <t>jtrxryw40</t>
+  </si>
+  <si>
+    <t>r$37eTS#</t>
+  </si>
+  <si>
+    <t>QcgKJLVH</t>
+  </si>
+  <si>
+    <t>GYan</t>
+  </si>
+  <si>
+    <t>fSaxA904</t>
+  </si>
+  <si>
+    <t>nydxdua41</t>
+  </si>
+  <si>
+    <t>sE5d!G3#</t>
+  </si>
+  <si>
+    <t>ZRTBOawx</t>
+  </si>
+  <si>
+    <t>QNWF</t>
+  </si>
+  <si>
+    <t>eBFVJ660</t>
+  </si>
+  <si>
+    <t>japvssm93</t>
+  </si>
+  <si>
+    <t>JzS%68#h</t>
+  </si>
+  <si>
+    <t>IhkLgPlU</t>
+  </si>
+  <si>
+    <t>GdnO</t>
+  </si>
+  <si>
+    <t>dVPSh786</t>
+  </si>
+  <si>
+    <t>fnoefug22</t>
+  </si>
+  <si>
+    <t>py7&amp;Z8A%</t>
+  </si>
+  <si>
+    <t>lHDyDGKT</t>
+  </si>
+  <si>
+    <t>oIvn</t>
+  </si>
+  <si>
+    <t>ONeky198</t>
+  </si>
+  <si>
+    <t>wxqmymu93</t>
+  </si>
+  <si>
+    <t>Ek6F5#%t</t>
+  </si>
+  <si>
+    <t>SPjvPwBK</t>
+  </si>
+  <si>
+    <t>LOrG</t>
+  </si>
+  <si>
+    <t>dUUGn232</t>
+  </si>
+  <si>
+    <t>cbhryaz47</t>
+  </si>
+  <si>
+    <t>YdS!42&amp;y</t>
+  </si>
+  <si>
+    <t>ZrLZtrhj</t>
+  </si>
+  <si>
+    <t>MQQV</t>
+  </si>
+  <si>
+    <t>yboiX674</t>
+  </si>
+  <si>
+    <t>ekrhkwb77</t>
+  </si>
+  <si>
+    <t>TSzf#49&amp;</t>
+  </si>
+  <si>
+    <t>gIYiuzuk</t>
+  </si>
+  <si>
+    <t>JDHp</t>
+  </si>
+  <si>
+    <t>mtPcK694</t>
+  </si>
+  <si>
+    <t>iynpfep44</t>
+  </si>
+  <si>
+    <t>y#&amp;P3K5g</t>
+  </si>
+  <si>
+    <t>oBeZMazR</t>
+  </si>
+  <si>
+    <t>NCKN</t>
+  </si>
+  <si>
+    <t>mjriQ397</t>
+  </si>
+  <si>
+    <t>zzuumhx76</t>
+  </si>
+  <si>
+    <t>w%7&amp;6FYs</t>
+  </si>
+  <si>
+    <t>uCgIhQZi</t>
+  </si>
+  <si>
+    <t>faau</t>
+  </si>
+  <si>
+    <t>jDuJK351</t>
+  </si>
+  <si>
+    <t>zvdeuav30</t>
+  </si>
+  <si>
+    <t>gp&amp;%H7B4</t>
+  </si>
+  <si>
+    <t>jNSTiFse</t>
+  </si>
+  <si>
+    <t>JLww</t>
   </si>
 </sst>
 </file>
@@ -502,10 +592,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H7"/>
+      <selection activeCell="A1" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +631,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004192</v>
+        <v>231006242</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -567,7 +657,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004191</v>
+        <v>231006241</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -593,7 +683,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004190</v>
+        <v>231006240</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -619,7 +709,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004189</v>
+        <v>231006239</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -645,7 +735,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231004188</v>
+        <v>231006238</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -671,7 +761,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231004187</v>
+        <v>231006237</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -689,6 +779,162 @@
         <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231006236</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231006235</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231006234</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231006233</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231006232</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231006231</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExam.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,190 +41,100 @@
     <t>Role</t>
   </si>
   <si>
-    <t>DExpi910</t>
-  </si>
-  <si>
-    <t>xsxsafl56</t>
-  </si>
-  <si>
-    <t>f7R9F!%y</t>
+    <t>zvhvo765</t>
+  </si>
+  <si>
+    <t>udgjehp54</t>
+  </si>
+  <si>
+    <t>Q#r76d&amp;G</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>TEevobFl</t>
-  </si>
-  <si>
-    <t>BUbp</t>
+    <t>LFiKTmhV</t>
+  </si>
+  <si>
+    <t>MTfL</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>dEtqV203</t>
-  </si>
-  <si>
-    <t>qlbigcc48</t>
-  </si>
-  <si>
-    <t>a5GQd6&amp;#</t>
-  </si>
-  <si>
-    <t>LZSOyssD</t>
-  </si>
-  <si>
-    <t>XKkU</t>
-  </si>
-  <si>
-    <t>eugBU870</t>
-  </si>
-  <si>
-    <t>jtrxryw40</t>
-  </si>
-  <si>
-    <t>r$37eTS#</t>
-  </si>
-  <si>
-    <t>QcgKJLVH</t>
-  </si>
-  <si>
-    <t>GYan</t>
-  </si>
-  <si>
-    <t>fSaxA904</t>
-  </si>
-  <si>
-    <t>nydxdua41</t>
-  </si>
-  <si>
-    <t>sE5d!G3#</t>
-  </si>
-  <si>
-    <t>ZRTBOawx</t>
-  </si>
-  <si>
-    <t>QNWF</t>
-  </si>
-  <si>
-    <t>eBFVJ660</t>
-  </si>
-  <si>
-    <t>japvssm93</t>
-  </si>
-  <si>
-    <t>JzS%68#h</t>
-  </si>
-  <si>
-    <t>IhkLgPlU</t>
-  </si>
-  <si>
-    <t>GdnO</t>
-  </si>
-  <si>
-    <t>dVPSh786</t>
-  </si>
-  <si>
-    <t>fnoefug22</t>
-  </si>
-  <si>
-    <t>py7&amp;Z8A%</t>
-  </si>
-  <si>
-    <t>lHDyDGKT</t>
-  </si>
-  <si>
-    <t>oIvn</t>
-  </si>
-  <si>
-    <t>ONeky198</t>
-  </si>
-  <si>
-    <t>wxqmymu93</t>
-  </si>
-  <si>
-    <t>Ek6F5#%t</t>
-  </si>
-  <si>
-    <t>SPjvPwBK</t>
-  </si>
-  <si>
-    <t>LOrG</t>
-  </si>
-  <si>
-    <t>dUUGn232</t>
-  </si>
-  <si>
-    <t>cbhryaz47</t>
-  </si>
-  <si>
-    <t>YdS!42&amp;y</t>
-  </si>
-  <si>
-    <t>ZrLZtrhj</t>
-  </si>
-  <si>
-    <t>MQQV</t>
-  </si>
-  <si>
-    <t>yboiX674</t>
-  </si>
-  <si>
-    <t>ekrhkwb77</t>
-  </si>
-  <si>
-    <t>TSzf#49&amp;</t>
-  </si>
-  <si>
-    <t>gIYiuzuk</t>
-  </si>
-  <si>
-    <t>JDHp</t>
-  </si>
-  <si>
-    <t>mtPcK694</t>
-  </si>
-  <si>
-    <t>iynpfep44</t>
-  </si>
-  <si>
-    <t>y#&amp;P3K5g</t>
-  </si>
-  <si>
-    <t>oBeZMazR</t>
-  </si>
-  <si>
-    <t>NCKN</t>
-  </si>
-  <si>
-    <t>mjriQ397</t>
-  </si>
-  <si>
-    <t>zzuumhx76</t>
-  </si>
-  <si>
-    <t>w%7&amp;6FYs</t>
-  </si>
-  <si>
-    <t>uCgIhQZi</t>
-  </si>
-  <si>
-    <t>faau</t>
-  </si>
-  <si>
-    <t>jDuJK351</t>
-  </si>
-  <si>
-    <t>zvdeuav30</t>
-  </si>
-  <si>
-    <t>gp&amp;%H7B4</t>
-  </si>
-  <si>
-    <t>jNSTiFse</t>
-  </si>
-  <si>
-    <t>JLww</t>
+    <t>PImer348</t>
+  </si>
+  <si>
+    <t>ietdoik91</t>
+  </si>
+  <si>
+    <t>qC$!6S3h</t>
+  </si>
+  <si>
+    <t>AwjUmwCm</t>
+  </si>
+  <si>
+    <t>mLxK</t>
+  </si>
+  <si>
+    <t>ZOXmI890</t>
+  </si>
+  <si>
+    <t>spfqkzo66</t>
+  </si>
+  <si>
+    <t>hW!M64#x</t>
+  </si>
+  <si>
+    <t>OsIzdBfM</t>
+  </si>
+  <si>
+    <t>XnNY</t>
+  </si>
+  <si>
+    <t>mHoMe669</t>
+  </si>
+  <si>
+    <t>kjbuhcg85</t>
+  </si>
+  <si>
+    <t>d&amp;4A6!hU</t>
+  </si>
+  <si>
+    <t>jTvBybzi</t>
+  </si>
+  <si>
+    <t>gcJT</t>
+  </si>
+  <si>
+    <t>pAKPY623</t>
+  </si>
+  <si>
+    <t>ksiitun77</t>
+  </si>
+  <si>
+    <t>VP$9&amp;p3a</t>
+  </si>
+  <si>
+    <t>IsVPfCun</t>
+  </si>
+  <si>
+    <t>PlQx</t>
+  </si>
+  <si>
+    <t>dOQqK553</t>
+  </si>
+  <si>
+    <t>swrjdde61</t>
+  </si>
+  <si>
+    <t>Qd4tD3!&amp;</t>
+  </si>
+  <si>
+    <t>DaMSrIeR</t>
+  </si>
+  <si>
+    <t>xtRO</t>
   </si>
 </sst>
 </file>
@@ -592,10 +502,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H13"/>
+      <selection activeCell="A1" sqref="A1:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -631,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231006242</v>
+        <v>231004192</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -657,7 +567,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231006241</v>
+        <v>231004191</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -683,7 +593,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231006240</v>
+        <v>231004190</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -709,7 +619,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231006239</v>
+        <v>231004189</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -735,7 +645,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231006238</v>
+        <v>231004188</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -761,7 +671,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231006237</v>
+        <v>231004187</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -779,162 +689,6 @@
         <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2">
-        <v>231006236</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2">
-        <v>231006235</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2">
-        <v>231006234</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2">
-        <v>231006233</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2">
-        <v>231006232</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2">
-        <v>231006231</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExam.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,100 +41,220 @@
     <t>Role</t>
   </si>
   <si>
-    <t>zvhvo765</t>
-  </si>
-  <si>
-    <t>udgjehp54</t>
-  </si>
-  <si>
-    <t>Q#r76d&amp;G</t>
+    <t>yPFIq555</t>
+  </si>
+  <si>
+    <t>bsnwroa36</t>
+  </si>
+  <si>
+    <t>A6%Fuj$2</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>LFiKTmhV</t>
-  </si>
-  <si>
-    <t>MTfL</t>
+    <t>gYVZaiqa</t>
+  </si>
+  <si>
+    <t>bvVM</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>PImer348</t>
-  </si>
-  <si>
-    <t>ietdoik91</t>
-  </si>
-  <si>
-    <t>qC$!6S3h</t>
-  </si>
-  <si>
-    <t>AwjUmwCm</t>
-  </si>
-  <si>
-    <t>mLxK</t>
-  </si>
-  <si>
-    <t>ZOXmI890</t>
-  </si>
-  <si>
-    <t>spfqkzo66</t>
-  </si>
-  <si>
-    <t>hW!M64#x</t>
-  </si>
-  <si>
-    <t>OsIzdBfM</t>
-  </si>
-  <si>
-    <t>XnNY</t>
-  </si>
-  <si>
-    <t>mHoMe669</t>
-  </si>
-  <si>
-    <t>kjbuhcg85</t>
-  </si>
-  <si>
-    <t>d&amp;4A6!hU</t>
-  </si>
-  <si>
-    <t>jTvBybzi</t>
-  </si>
-  <si>
-    <t>gcJT</t>
-  </si>
-  <si>
-    <t>pAKPY623</t>
-  </si>
-  <si>
-    <t>ksiitun77</t>
-  </si>
-  <si>
-    <t>VP$9&amp;p3a</t>
-  </si>
-  <si>
-    <t>IsVPfCun</t>
-  </si>
-  <si>
-    <t>PlQx</t>
-  </si>
-  <si>
-    <t>dOQqK553</t>
-  </si>
-  <si>
-    <t>swrjdde61</t>
-  </si>
-  <si>
-    <t>Qd4tD3!&amp;</t>
-  </si>
-  <si>
-    <t>DaMSrIeR</t>
-  </si>
-  <si>
-    <t>xtRO</t>
+    <t>oPMcI828</t>
+  </si>
+  <si>
+    <t>naljpwc93</t>
+  </si>
+  <si>
+    <t>k35hM#!H</t>
+  </si>
+  <si>
+    <t>zGfIUZZs</t>
+  </si>
+  <si>
+    <t>zkzt</t>
+  </si>
+  <si>
+    <t>AQYIj613</t>
+  </si>
+  <si>
+    <t>hzefdef87</t>
+  </si>
+  <si>
+    <t>u%6y5AR&amp;</t>
+  </si>
+  <si>
+    <t>UOOwvTOZ</t>
+  </si>
+  <si>
+    <t>LYdT</t>
+  </si>
+  <si>
+    <t>RJYmE208</t>
+  </si>
+  <si>
+    <t>hlxlque29</t>
+  </si>
+  <si>
+    <t>ZR&amp;28!mc</t>
+  </si>
+  <si>
+    <t>QWYFBbIw</t>
+  </si>
+  <si>
+    <t>HkFJ</t>
+  </si>
+  <si>
+    <t>DjdcV735</t>
+  </si>
+  <si>
+    <t>djgjijf84</t>
+  </si>
+  <si>
+    <t>r!34Z&amp;My</t>
+  </si>
+  <si>
+    <t>BmaxKoiX</t>
+  </si>
+  <si>
+    <t>OOwm</t>
+  </si>
+  <si>
+    <t>GNkKw909</t>
+  </si>
+  <si>
+    <t>avxdomr45</t>
+  </si>
+  <si>
+    <t>Wa45$dA!</t>
+  </si>
+  <si>
+    <t>vYDSrtYs</t>
+  </si>
+  <si>
+    <t>jLbh</t>
+  </si>
+  <si>
+    <t>MNCDF699</t>
+  </si>
+  <si>
+    <t>wkwmqvp50</t>
+  </si>
+  <si>
+    <t>k4!b#5FA</t>
+  </si>
+  <si>
+    <t>DwYDUTJm</t>
+  </si>
+  <si>
+    <t>czJN</t>
+  </si>
+  <si>
+    <t>HEDvZ511</t>
+  </si>
+  <si>
+    <t>xfpirxx37</t>
+  </si>
+  <si>
+    <t>n&amp;6u#D2C</t>
+  </si>
+  <si>
+    <t>gKPSQbFj</t>
+  </si>
+  <si>
+    <t>qDuu</t>
+  </si>
+  <si>
+    <t>udcoU491</t>
+  </si>
+  <si>
+    <t>zmhqktu15</t>
+  </si>
+  <si>
+    <t>J$Y!e47q</t>
+  </si>
+  <si>
+    <t>wHVKUpqk</t>
+  </si>
+  <si>
+    <t>RyKU</t>
+  </si>
+  <si>
+    <t>YqcqJ884</t>
+  </si>
+  <si>
+    <t>bjtuchu21</t>
+  </si>
+  <si>
+    <t>d&amp;2!SCz8</t>
+  </si>
+  <si>
+    <t>MWKHhhlj</t>
+  </si>
+  <si>
+    <t>Eiuz</t>
+  </si>
+  <si>
+    <t>RgtQS935</t>
+  </si>
+  <si>
+    <t>owgsftg60</t>
+  </si>
+  <si>
+    <t>zm5X4#&amp;N</t>
+  </si>
+  <si>
+    <t>eAvsguvE</t>
+  </si>
+  <si>
+    <t>fbpn</t>
+  </si>
+  <si>
+    <t>smwan615</t>
+  </si>
+  <si>
+    <t>znxshqo57</t>
+  </si>
+  <si>
+    <t>rGy9Q#$4</t>
+  </si>
+  <si>
+    <t>IPuypWoz</t>
+  </si>
+  <si>
+    <t>fIDm</t>
+  </si>
+  <si>
+    <t>ptSuC615</t>
+  </si>
+  <si>
+    <t>isaeobj36</t>
+  </si>
+  <si>
+    <t>U95#pZ$a</t>
+  </si>
+  <si>
+    <t>wyXnLvVP</t>
+  </si>
+  <si>
+    <t>MwLH</t>
+  </si>
+  <si>
+    <t>QLxLZ247</t>
+  </si>
+  <si>
+    <t>mnqwsxj76</t>
+  </si>
+  <si>
+    <t>wN65Xt&amp;$</t>
+  </si>
+  <si>
+    <t>tfMURMTW</t>
+  </si>
+  <si>
+    <t>yEYa</t>
   </si>
 </sst>
 </file>
@@ -502,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H7"/>
+      <selection activeCell="A1" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -541,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231004192</v>
+        <v>231011227</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -567,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231004191</v>
+        <v>231011226</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -593,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231004190</v>
+        <v>231011225</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -619,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231004189</v>
+        <v>231011224</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -645,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231004188</v>
+        <v>231011223</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -671,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231004187</v>
+        <v>231011222</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -689,6 +809,214 @@
         <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2">
+        <v>231011221</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>231011220</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>231011219</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231011218</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>231011217</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>231011216</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>231011215</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231011214</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExam.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,220 +41,205 @@
     <t>Role</t>
   </si>
   <si>
-    <t>yPFIq555</t>
-  </si>
-  <si>
-    <t>bsnwroa36</t>
-  </si>
-  <si>
-    <t>A6%Fuj$2</t>
+    <t>bCTzf322</t>
+  </si>
+  <si>
+    <t>ugefrpi66</t>
+  </si>
+  <si>
+    <t>cg$!5T9K</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>gYVZaiqa</t>
-  </si>
-  <si>
-    <t>bvVM</t>
+    <t>usvEzSSc</t>
+  </si>
+  <si>
+    <t>HIDF</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>oPMcI828</t>
-  </si>
-  <si>
-    <t>naljpwc93</t>
-  </si>
-  <si>
-    <t>k35hM#!H</t>
-  </si>
-  <si>
-    <t>zGfIUZZs</t>
-  </si>
-  <si>
-    <t>zkzt</t>
-  </si>
-  <si>
-    <t>AQYIj613</t>
-  </si>
-  <si>
-    <t>hzefdef87</t>
-  </si>
-  <si>
-    <t>u%6y5AR&amp;</t>
-  </si>
-  <si>
-    <t>UOOwvTOZ</t>
-  </si>
-  <si>
-    <t>LYdT</t>
-  </si>
-  <si>
-    <t>RJYmE208</t>
-  </si>
-  <si>
-    <t>hlxlque29</t>
-  </si>
-  <si>
-    <t>ZR&amp;28!mc</t>
-  </si>
-  <si>
-    <t>QWYFBbIw</t>
-  </si>
-  <si>
-    <t>HkFJ</t>
-  </si>
-  <si>
-    <t>DjdcV735</t>
-  </si>
-  <si>
-    <t>djgjijf84</t>
-  </si>
-  <si>
-    <t>r!34Z&amp;My</t>
-  </si>
-  <si>
-    <t>BmaxKoiX</t>
-  </si>
-  <si>
-    <t>OOwm</t>
-  </si>
-  <si>
-    <t>GNkKw909</t>
-  </si>
-  <si>
-    <t>avxdomr45</t>
-  </si>
-  <si>
-    <t>Wa45$dA!</t>
-  </si>
-  <si>
-    <t>vYDSrtYs</t>
-  </si>
-  <si>
-    <t>jLbh</t>
-  </si>
-  <si>
-    <t>MNCDF699</t>
-  </si>
-  <si>
-    <t>wkwmqvp50</t>
-  </si>
-  <si>
-    <t>k4!b#5FA</t>
-  </si>
-  <si>
-    <t>DwYDUTJm</t>
-  </si>
-  <si>
-    <t>czJN</t>
-  </si>
-  <si>
-    <t>HEDvZ511</t>
-  </si>
-  <si>
-    <t>xfpirxx37</t>
-  </si>
-  <si>
-    <t>n&amp;6u#D2C</t>
-  </si>
-  <si>
-    <t>gKPSQbFj</t>
-  </si>
-  <si>
-    <t>qDuu</t>
-  </si>
-  <si>
-    <t>udcoU491</t>
-  </si>
-  <si>
-    <t>zmhqktu15</t>
-  </si>
-  <si>
-    <t>J$Y!e47q</t>
-  </si>
-  <si>
-    <t>wHVKUpqk</t>
-  </si>
-  <si>
-    <t>RyKU</t>
-  </si>
-  <si>
-    <t>YqcqJ884</t>
-  </si>
-  <si>
-    <t>bjtuchu21</t>
-  </si>
-  <si>
-    <t>d&amp;2!SCz8</t>
-  </si>
-  <si>
-    <t>MWKHhhlj</t>
-  </si>
-  <si>
-    <t>Eiuz</t>
-  </si>
-  <si>
-    <t>RgtQS935</t>
-  </si>
-  <si>
-    <t>owgsftg60</t>
-  </si>
-  <si>
-    <t>zm5X4#&amp;N</t>
-  </si>
-  <si>
-    <t>eAvsguvE</t>
-  </si>
-  <si>
-    <t>fbpn</t>
-  </si>
-  <si>
-    <t>smwan615</t>
-  </si>
-  <si>
-    <t>znxshqo57</t>
-  </si>
-  <si>
-    <t>rGy9Q#$4</t>
-  </si>
-  <si>
-    <t>IPuypWoz</t>
-  </si>
-  <si>
-    <t>fIDm</t>
-  </si>
-  <si>
-    <t>ptSuC615</t>
-  </si>
-  <si>
-    <t>isaeobj36</t>
-  </si>
-  <si>
-    <t>U95#pZ$a</t>
-  </si>
-  <si>
-    <t>wyXnLvVP</t>
-  </si>
-  <si>
-    <t>MwLH</t>
-  </si>
-  <si>
-    <t>QLxLZ247</t>
-  </si>
-  <si>
-    <t>mnqwsxj76</t>
-  </si>
-  <si>
-    <t>wN65Xt&amp;$</t>
-  </si>
-  <si>
-    <t>tfMURMTW</t>
-  </si>
-  <si>
-    <t>yEYa</t>
+    <t>sDFaW246</t>
+  </si>
+  <si>
+    <t>pksbmwu45</t>
+  </si>
+  <si>
+    <t>N&amp;V#5va9</t>
+  </si>
+  <si>
+    <t>ktVXlKhU</t>
+  </si>
+  <si>
+    <t>kqkw</t>
+  </si>
+  <si>
+    <t>UYOEX176</t>
+  </si>
+  <si>
+    <t>msqeuul45</t>
+  </si>
+  <si>
+    <t>A7eD#c2%</t>
+  </si>
+  <si>
+    <t>UHKTMaOD</t>
+  </si>
+  <si>
+    <t>IPYe</t>
+  </si>
+  <si>
+    <t>uSbMW814</t>
+  </si>
+  <si>
+    <t>kuecmli75</t>
+  </si>
+  <si>
+    <t>ufA3Y&amp;$7</t>
+  </si>
+  <si>
+    <t>bYhDwXMQ</t>
+  </si>
+  <si>
+    <t>PsUu</t>
+  </si>
+  <si>
+    <t>kKpqN200</t>
+  </si>
+  <si>
+    <t>rrtuhjq30</t>
+  </si>
+  <si>
+    <t>X!2Vdc4&amp;</t>
+  </si>
+  <si>
+    <t>gykPksXn</t>
+  </si>
+  <si>
+    <t>WLUs</t>
+  </si>
+  <si>
+    <t>WolfQ745</t>
+  </si>
+  <si>
+    <t>lvtofbk89</t>
+  </si>
+  <si>
+    <t>wx8#D&amp;E6</t>
+  </si>
+  <si>
+    <t>aiKWdGCS</t>
+  </si>
+  <si>
+    <t>NldZ</t>
+  </si>
+  <si>
+    <t>qYrnS116</t>
+  </si>
+  <si>
+    <t>xiuyakn78</t>
+  </si>
+  <si>
+    <t>bGV%8$6z</t>
+  </si>
+  <si>
+    <t>hEsFesKm</t>
+  </si>
+  <si>
+    <t>cqtT</t>
+  </si>
+  <si>
+    <t>tVBKZ849</t>
+  </si>
+  <si>
+    <t>llfmulp17</t>
+  </si>
+  <si>
+    <t>Vg&amp;b5Y4#</t>
+  </si>
+  <si>
+    <t>LHTkPAXT</t>
+  </si>
+  <si>
+    <t>UHJv</t>
+  </si>
+  <si>
+    <t>Anzdf811</t>
+  </si>
+  <si>
+    <t>uriuzib17</t>
+  </si>
+  <si>
+    <t>WZh54b&amp;!</t>
+  </si>
+  <si>
+    <t>AxDWCbWz</t>
+  </si>
+  <si>
+    <t>dFtr</t>
+  </si>
+  <si>
+    <t>CnRyK282</t>
+  </si>
+  <si>
+    <t>qibyeoj54</t>
+  </si>
+  <si>
+    <t>dq#4T%M3</t>
+  </si>
+  <si>
+    <t>otSRVTrr</t>
+  </si>
+  <si>
+    <t>HKdd</t>
+  </si>
+  <si>
+    <t>uvwln554</t>
+  </si>
+  <si>
+    <t>xhexxwf68</t>
+  </si>
+  <si>
+    <t>n7Vp!#D8</t>
+  </si>
+  <si>
+    <t>JbCaczdK</t>
+  </si>
+  <si>
+    <t>ufaZ</t>
+  </si>
+  <si>
+    <t>crlLW260</t>
+  </si>
+  <si>
+    <t>iiqpeer25</t>
+  </si>
+  <si>
+    <t>dV%bM49!</t>
+  </si>
+  <si>
+    <t>BpUDvXZO</t>
+  </si>
+  <si>
+    <t>cDov</t>
+  </si>
+  <si>
+    <t>OHxqD566</t>
+  </si>
+  <si>
+    <t>iayvmsn63</t>
+  </si>
+  <si>
+    <t>Au%8Ct&amp;9</t>
+  </si>
+  <si>
+    <t>piNvMwbA</t>
+  </si>
+  <si>
+    <t>kXnQ</t>
   </si>
 </sst>
 </file>
@@ -622,10 +607,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H15"/>
+      <selection activeCell="A1" sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231011227</v>
+        <v>23102880</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -687,7 +672,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>231011226</v>
+        <v>23102879</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -713,7 +698,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>231011225</v>
+        <v>23102878</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -739,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>231011224</v>
+        <v>23102877</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -765,7 +750,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>231011223</v>
+        <v>23102876</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -791,7 +776,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>231011222</v>
+        <v>23102875</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -817,7 +802,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>231011221</v>
+        <v>23102874</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -843,7 +828,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>231011220</v>
+        <v>23102873</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -869,7 +854,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>231011219</v>
+        <v>23102872</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -895,7 +880,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>231011218</v>
+        <v>23102871</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -921,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>231011217</v>
+        <v>23102870</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -947,7 +932,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>231011216</v>
+        <v>23102869</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -973,7 +958,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>231011215</v>
+        <v>23102868</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -991,32 +976,6 @@
         <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2">
-        <v>231011214</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExam.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,205 +41,220 @@
     <t>Role</t>
   </si>
   <si>
-    <t>bCTzf322</t>
-  </si>
-  <si>
-    <t>ugefrpi66</t>
-  </si>
-  <si>
-    <t>cg$!5T9K</t>
+    <t>TBZtO234</t>
+  </si>
+  <si>
+    <t>bujqqur42</t>
+  </si>
+  <si>
+    <t>D&amp;gd4%8J</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>usvEzSSc</t>
-  </si>
-  <si>
-    <t>HIDF</t>
+    <t>gxLCjAlv</t>
+  </si>
+  <si>
+    <t>Otxz</t>
   </si>
   <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>sDFaW246</t>
-  </si>
-  <si>
-    <t>pksbmwu45</t>
-  </si>
-  <si>
-    <t>N&amp;V#5va9</t>
-  </si>
-  <si>
-    <t>ktVXlKhU</t>
-  </si>
-  <si>
-    <t>kqkw</t>
-  </si>
-  <si>
-    <t>UYOEX176</t>
-  </si>
-  <si>
-    <t>msqeuul45</t>
-  </si>
-  <si>
-    <t>A7eD#c2%</t>
-  </si>
-  <si>
-    <t>UHKTMaOD</t>
-  </si>
-  <si>
-    <t>IPYe</t>
-  </si>
-  <si>
-    <t>uSbMW814</t>
-  </si>
-  <si>
-    <t>kuecmli75</t>
-  </si>
-  <si>
-    <t>ufA3Y&amp;$7</t>
-  </si>
-  <si>
-    <t>bYhDwXMQ</t>
-  </si>
-  <si>
-    <t>PsUu</t>
-  </si>
-  <si>
-    <t>kKpqN200</t>
-  </si>
-  <si>
-    <t>rrtuhjq30</t>
-  </si>
-  <si>
-    <t>X!2Vdc4&amp;</t>
-  </si>
-  <si>
-    <t>gykPksXn</t>
-  </si>
-  <si>
-    <t>WLUs</t>
-  </si>
-  <si>
-    <t>WolfQ745</t>
-  </si>
-  <si>
-    <t>lvtofbk89</t>
-  </si>
-  <si>
-    <t>wx8#D&amp;E6</t>
-  </si>
-  <si>
-    <t>aiKWdGCS</t>
-  </si>
-  <si>
-    <t>NldZ</t>
-  </si>
-  <si>
-    <t>qYrnS116</t>
-  </si>
-  <si>
-    <t>xiuyakn78</t>
-  </si>
-  <si>
-    <t>bGV%8$6z</t>
-  </si>
-  <si>
-    <t>hEsFesKm</t>
-  </si>
-  <si>
-    <t>cqtT</t>
-  </si>
-  <si>
-    <t>tVBKZ849</t>
-  </si>
-  <si>
-    <t>llfmulp17</t>
-  </si>
-  <si>
-    <t>Vg&amp;b5Y4#</t>
-  </si>
-  <si>
-    <t>LHTkPAXT</t>
-  </si>
-  <si>
-    <t>UHJv</t>
-  </si>
-  <si>
-    <t>Anzdf811</t>
-  </si>
-  <si>
-    <t>uriuzib17</t>
-  </si>
-  <si>
-    <t>WZh54b&amp;!</t>
-  </si>
-  <si>
-    <t>AxDWCbWz</t>
-  </si>
-  <si>
-    <t>dFtr</t>
-  </si>
-  <si>
-    <t>CnRyK282</t>
-  </si>
-  <si>
-    <t>qibyeoj54</t>
-  </si>
-  <si>
-    <t>dq#4T%M3</t>
-  </si>
-  <si>
-    <t>otSRVTrr</t>
-  </si>
-  <si>
-    <t>HKdd</t>
-  </si>
-  <si>
-    <t>uvwln554</t>
-  </si>
-  <si>
-    <t>xhexxwf68</t>
-  </si>
-  <si>
-    <t>n7Vp!#D8</t>
-  </si>
-  <si>
-    <t>JbCaczdK</t>
-  </si>
-  <si>
-    <t>ufaZ</t>
-  </si>
-  <si>
-    <t>crlLW260</t>
-  </si>
-  <si>
-    <t>iiqpeer25</t>
-  </si>
-  <si>
-    <t>dV%bM49!</t>
-  </si>
-  <si>
-    <t>BpUDvXZO</t>
-  </si>
-  <si>
-    <t>cDov</t>
-  </si>
-  <si>
-    <t>OHxqD566</t>
-  </si>
-  <si>
-    <t>iayvmsn63</t>
-  </si>
-  <si>
-    <t>Au%8Ct&amp;9</t>
-  </si>
-  <si>
-    <t>piNvMwbA</t>
-  </si>
-  <si>
-    <t>kXnQ</t>
+    <t>fqCMT400</t>
+  </si>
+  <si>
+    <t>uxufyye62</t>
+  </si>
+  <si>
+    <t>R%s2Eg5&amp;</t>
+  </si>
+  <si>
+    <t>jvtzpDrF</t>
+  </si>
+  <si>
+    <t>cKAM</t>
+  </si>
+  <si>
+    <t>JxAty549</t>
+  </si>
+  <si>
+    <t>rdakwap42</t>
+  </si>
+  <si>
+    <t>h9RC%$g8</t>
+  </si>
+  <si>
+    <t>mcpFybdd</t>
+  </si>
+  <si>
+    <t>RPfG</t>
+  </si>
+  <si>
+    <t>EfTFE893</t>
+  </si>
+  <si>
+    <t>toqsdpq26</t>
+  </si>
+  <si>
+    <t>pD6g$V!9</t>
+  </si>
+  <si>
+    <t>uDLSYPUq</t>
+  </si>
+  <si>
+    <t>MjNp</t>
+  </si>
+  <si>
+    <t>aHmsF874</t>
+  </si>
+  <si>
+    <t>rkohqul24</t>
+  </si>
+  <si>
+    <t>U2xrG!6#</t>
+  </si>
+  <si>
+    <t>FSwIPkQh</t>
+  </si>
+  <si>
+    <t>kDLg</t>
+  </si>
+  <si>
+    <t>CztTs612</t>
+  </si>
+  <si>
+    <t>kzreddl96</t>
+  </si>
+  <si>
+    <t>ak25EB#!</t>
+  </si>
+  <si>
+    <t>KbzZSviF</t>
+  </si>
+  <si>
+    <t>XDIh</t>
+  </si>
+  <si>
+    <t>oGsfI795</t>
+  </si>
+  <si>
+    <t>fhberbb84</t>
+  </si>
+  <si>
+    <t>k$7!eVJ5</t>
+  </si>
+  <si>
+    <t>cgwMXmsX</t>
+  </si>
+  <si>
+    <t>qOuN</t>
+  </si>
+  <si>
+    <t>eMqwR237</t>
+  </si>
+  <si>
+    <t>xsmpscz70</t>
+  </si>
+  <si>
+    <t>j$3YS8p!</t>
+  </si>
+  <si>
+    <t>RcTOXtaD</t>
+  </si>
+  <si>
+    <t>EFmT</t>
+  </si>
+  <si>
+    <t>FCfdv958</t>
+  </si>
+  <si>
+    <t>eznsepg50</t>
+  </si>
+  <si>
+    <t>x3z4R!%P</t>
+  </si>
+  <si>
+    <t>JnxgkRYx</t>
+  </si>
+  <si>
+    <t>xCvU</t>
+  </si>
+  <si>
+    <t>oVkaK186</t>
+  </si>
+  <si>
+    <t>aqjofrp65</t>
+  </si>
+  <si>
+    <t>a5!4XPd&amp;</t>
+  </si>
+  <si>
+    <t>vFbCZoyH</t>
+  </si>
+  <si>
+    <t>wnSD</t>
+  </si>
+  <si>
+    <t>MKzDW348</t>
+  </si>
+  <si>
+    <t>okrfvru60</t>
+  </si>
+  <si>
+    <t>d#4BM7x%</t>
+  </si>
+  <si>
+    <t>PrZYbQhZ</t>
+  </si>
+  <si>
+    <t>kVjH</t>
+  </si>
+  <si>
+    <t>CutFi497</t>
+  </si>
+  <si>
+    <t>tbedorh37</t>
+  </si>
+  <si>
+    <t>y85R!hV#</t>
+  </si>
+  <si>
+    <t>yTYpwhFp</t>
+  </si>
+  <si>
+    <t>tupz</t>
+  </si>
+  <si>
+    <t>zJnpd385</t>
+  </si>
+  <si>
+    <t>rrjyuyd18</t>
+  </si>
+  <si>
+    <t>qP#6%9Ub</t>
+  </si>
+  <si>
+    <t>hOEVXNad</t>
+  </si>
+  <si>
+    <t>XRFR</t>
+  </si>
+  <si>
+    <t>WhGgh611</t>
+  </si>
+  <si>
+    <t>ywuojdr55</t>
+  </si>
+  <si>
+    <t>Xh8$U#6w</t>
+  </si>
+  <si>
+    <t>LtOROZDr</t>
+  </si>
+  <si>
+    <t>BwVz</t>
   </si>
 </sst>
 </file>
@@ -607,10 +622,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H14"/>
+      <selection activeCell="A1" sqref="A1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -646,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>23102880</v>
+        <v>231102272</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -672,7 +687,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2">
-        <v>23102879</v>
+        <v>231102271</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>16</v>
@@ -698,7 +713,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>23102878</v>
+        <v>231102270</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>21</v>
@@ -724,7 +739,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>23102877</v>
+        <v>231102269</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -750,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="2">
-        <v>23102876</v>
+        <v>231102268</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
@@ -776,7 +791,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="2">
-        <v>23102875</v>
+        <v>231102267</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>36</v>
@@ -802,7 +817,7 @@
         <v>40</v>
       </c>
       <c r="B8" s="2">
-        <v>23102874</v>
+        <v>231102266</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>41</v>
@@ -828,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>23102873</v>
+        <v>231102265</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -854,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="B10" s="2">
-        <v>23102872</v>
+        <v>231102264</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -880,7 +895,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="2">
-        <v>23102871</v>
+        <v>231102263</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>56</v>
@@ -906,7 +921,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="2">
-        <v>23102870</v>
+        <v>231102262</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>61</v>
@@ -932,7 +947,7 @@
         <v>65</v>
       </c>
       <c r="B13" s="2">
-        <v>23102869</v>
+        <v>231102261</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>66</v>
@@ -958,7 +973,7 @@
         <v>70</v>
       </c>
       <c r="B14" s="2">
-        <v>23102868</v>
+        <v>231102260</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>71</v>
@@ -976,6 +991,32 @@
         <v>74</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>231102259</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/download/bulkUserCredentialForAllTypeQutnExam.xlsx
+++ b/download/bulkUserCredentialForAllTypeQutnExam.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>Client Id</t>
   </si>
@@ -41,220 +41,94 @@
     <t>Role</t>
   </si>
   <si>
-    <t>TBZtO234</t>
-  </si>
-  <si>
-    <t>bujqqur42</t>
-  </si>
-  <si>
-    <t>D&amp;gd4%8J</t>
+    <t>CIO12082</t>
+  </si>
+  <si>
+    <t>candidatepfm12082</t>
+  </si>
+  <si>
+    <t>Elumina@204</t>
   </si>
   <si>
     <t>MR</t>
   </si>
   <si>
-    <t>gxLCjAlv</t>
-  </si>
-  <si>
-    <t>Otxz</t>
-  </si>
-  <si>
     <t>Candidate</t>
   </si>
   <si>
-    <t>fqCMT400</t>
-  </si>
-  <si>
-    <t>uxufyye62</t>
-  </si>
-  <si>
-    <t>R%s2Eg5&amp;</t>
-  </si>
-  <si>
-    <t>jvtzpDrF</t>
-  </si>
-  <si>
-    <t>cKAM</t>
-  </si>
-  <si>
-    <t>JxAty549</t>
-  </si>
-  <si>
-    <t>rdakwap42</t>
-  </si>
-  <si>
-    <t>h9RC%$g8</t>
-  </si>
-  <si>
-    <t>mcpFybdd</t>
-  </si>
-  <si>
-    <t>RPfG</t>
-  </si>
-  <si>
-    <t>EfTFE893</t>
-  </si>
-  <si>
-    <t>toqsdpq26</t>
-  </si>
-  <si>
-    <t>pD6g$V!9</t>
-  </si>
-  <si>
-    <t>uDLSYPUq</t>
-  </si>
-  <si>
-    <t>MjNp</t>
-  </si>
-  <si>
-    <t>aHmsF874</t>
-  </si>
-  <si>
-    <t>rkohqul24</t>
-  </si>
-  <si>
-    <t>U2xrG!6#</t>
-  </si>
-  <si>
-    <t>FSwIPkQh</t>
-  </si>
-  <si>
-    <t>kDLg</t>
-  </si>
-  <si>
-    <t>CztTs612</t>
-  </si>
-  <si>
-    <t>kzreddl96</t>
-  </si>
-  <si>
-    <t>ak25EB#!</t>
-  </si>
-  <si>
-    <t>KbzZSviF</t>
-  </si>
-  <si>
-    <t>XDIh</t>
-  </si>
-  <si>
-    <t>oGsfI795</t>
-  </si>
-  <si>
-    <t>fhberbb84</t>
-  </si>
-  <si>
-    <t>k$7!eVJ5</t>
-  </si>
-  <si>
-    <t>cgwMXmsX</t>
-  </si>
-  <si>
-    <t>qOuN</t>
-  </si>
-  <si>
-    <t>eMqwR237</t>
-  </si>
-  <si>
-    <t>xsmpscz70</t>
-  </si>
-  <si>
-    <t>j$3YS8p!</t>
-  </si>
-  <si>
-    <t>RcTOXtaD</t>
-  </si>
-  <si>
-    <t>EFmT</t>
-  </si>
-  <si>
-    <t>FCfdv958</t>
-  </si>
-  <si>
-    <t>eznsepg50</t>
-  </si>
-  <si>
-    <t>x3z4R!%P</t>
-  </si>
-  <si>
-    <t>JnxgkRYx</t>
-  </si>
-  <si>
-    <t>xCvU</t>
-  </si>
-  <si>
-    <t>oVkaK186</t>
-  </si>
-  <si>
-    <t>aqjofrp65</t>
-  </si>
-  <si>
-    <t>a5!4XPd&amp;</t>
-  </si>
-  <si>
-    <t>vFbCZoyH</t>
-  </si>
-  <si>
-    <t>wnSD</t>
-  </si>
-  <si>
-    <t>MKzDW348</t>
-  </si>
-  <si>
-    <t>okrfvru60</t>
-  </si>
-  <si>
-    <t>d#4BM7x%</t>
-  </si>
-  <si>
-    <t>PrZYbQhZ</t>
-  </si>
-  <si>
-    <t>kVjH</t>
-  </si>
-  <si>
-    <t>CutFi497</t>
-  </si>
-  <si>
-    <t>tbedorh37</t>
-  </si>
-  <si>
-    <t>y85R!hV#</t>
-  </si>
-  <si>
-    <t>yTYpwhFp</t>
-  </si>
-  <si>
-    <t>tupz</t>
-  </si>
-  <si>
-    <t>zJnpd385</t>
-  </si>
-  <si>
-    <t>rrjyuyd18</t>
-  </si>
-  <si>
-    <t>qP#6%9Ub</t>
-  </si>
-  <si>
-    <t>hOEVXNad</t>
-  </si>
-  <si>
-    <t>XRFR</t>
-  </si>
-  <si>
-    <t>WhGgh611</t>
-  </si>
-  <si>
-    <t>ywuojdr55</t>
-  </si>
-  <si>
-    <t>Xh8$U#6w</t>
-  </si>
-  <si>
-    <t>LtOROZDr</t>
-  </si>
-  <si>
-    <t>BwVz</t>
+    <t>PFTMM</t>
+  </si>
+  <si>
+    <t>CIO12081</t>
+  </si>
+  <si>
+    <t>candidatepfm12081</t>
+  </si>
+  <si>
+    <t>Elumina@203</t>
+  </si>
+  <si>
+    <t>CIO12080</t>
+  </si>
+  <si>
+    <t>candidatepfm12080</t>
+  </si>
+  <si>
+    <t>Elumina@202</t>
+  </si>
+  <si>
+    <t>CIO12079</t>
+  </si>
+  <si>
+    <t>candidatepfm12079</t>
+  </si>
+  <si>
+    <t>Elumina@201</t>
+  </si>
+  <si>
+    <t>CIO12078</t>
+  </si>
+  <si>
+    <t>candidatepfm12078</t>
+  </si>
+  <si>
+    <t>Elumina@200</t>
+  </si>
+  <si>
+    <t>CIO12077</t>
+  </si>
+  <si>
+    <t>candidatepfm12077</t>
+  </si>
+  <si>
+    <t>Elumina@199</t>
+  </si>
+  <si>
+    <t>CIO12076</t>
+  </si>
+  <si>
+    <t>candidatepfm12076</t>
+  </si>
+  <si>
+    <t>Elumina@198</t>
+  </si>
+  <si>
+    <t>CIO12075</t>
+  </si>
+  <si>
+    <t>candidatepfm12075</t>
+  </si>
+  <si>
+    <t>Elumina@197</t>
+  </si>
+  <si>
+    <t>CIO12074</t>
+  </si>
+  <si>
+    <t>candidatepfm12074</t>
+  </si>
+  <si>
+    <t>Elumina@196</t>
   </si>
 </sst>
 </file>
@@ -622,10 +496,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:H15"/>
+      <selection activeCell="A1" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -661,7 +535,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>231102272</v>
+        <v>20123226</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -679,345 +553,215 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20123225</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2">
-        <v>231102271</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>231102270</v>
+        <v>20123224</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>231102269</v>
+        <v>20123223</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
-        <v>231102268</v>
+        <v>20123222</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>231102267</v>
+        <v>20123221</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
-        <v>231102266</v>
+        <v>20123220</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2">
-        <v>231102265</v>
+        <v>20123219</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2">
-        <v>231102264</v>
+        <v>20123218</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2">
-        <v>231102263</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2">
-        <v>231102262</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="2">
-        <v>231102261</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="2">
-        <v>231102260</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="2">
-        <v>231102259</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
